--- a/tiles/tiles.xlsx
+++ b/tiles/tiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>color</t>
   </si>
@@ -25,25 +25,19 @@
     <t>RED</t>
   </si>
   <si>
-    <t>draw a red card</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>draw a green card</t>
+    <t>adversary</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>single use item</t>
   </si>
   <si>
     <t>MAGENTA</t>
   </si>
   <si>
-    <t>draw buff and debuff</t>
-  </si>
-  <si>
-    <t>CYAN</t>
-  </si>
-  <si>
-    <t>draw an event card</t>
+    <t>draw buff/debuff (50/50)</t>
   </si>
   <si>
     <t>WHITE</t>
@@ -56,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -67,6 +61,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,12 +81,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -321,6 +325,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -330,8 +335,9 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>6.0</v>
-      </c>
+        <v>25.0</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -341,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,312 +358,305 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>15.0</v>
-      </c>
+      <c r="C5" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>60.0</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
+      <c r="A86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="2"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="2"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
+      <c r="A96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="2"/>
+      <c r="A97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
+      <c r="A100" s="4"/>
     </row>
   </sheetData>
   <dataValidations>
